--- a/Acceptance Test_Phase 2/FI/acceptance-testing-form_Celia.xlsx
+++ b/Acceptance Test_Phase 2/FI/acceptance-testing-form_Celia.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Acceptance Test_Phase 2\FI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$IV$101</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1575,7 +1583,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1586,6 +1594,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,7 +1675,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1692,9 +1712,27 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -3019,27 +3057,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C98" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.61328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.3828125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.07421875" style="1" customWidth="1"/>
     <col min="7" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1">
+    <row r="1" spans="1:6" ht="16.95" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3069,7 +3107,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="3" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +3123,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="4" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3139,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="28.9" customHeight="1">
+    <row r="5" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3155,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="28.9" customHeight="1">
+    <row r="6" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3171,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="28.9" customHeight="1">
+    <row r="7" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3149,7 +3187,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="28.9" customHeight="1">
+    <row r="8" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -3165,7 +3203,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="28.9" customHeight="1">
+    <row r="9" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3219,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="10" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -3197,7 +3235,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="11" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3213,7 +3251,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="28.9" customHeight="1">
+    <row r="12" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -3231,7 +3269,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="28.9" customHeight="1">
+    <row r="13" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -3249,7 +3287,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="28.9" customHeight="1">
+    <row r="14" spans="1:6" ht="28.95" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3269,7 +3307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.9" customHeight="1">
+    <row r="15" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -3285,7 +3323,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="28.9" customHeight="1">
+    <row r="16" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -3303,7 +3341,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="28.9" customHeight="1">
+    <row r="17" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -3321,8 +3359,8 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6" ht="19.2" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="8">
@@ -3341,7 +3379,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="19" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -3359,7 +3397,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="28.9" customHeight="1">
+    <row r="20" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -3375,7 +3413,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="28.9" customHeight="1">
+    <row r="21" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -3393,7 +3431,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="22" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -3411,7 +3449,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="28.9" customHeight="1">
+    <row r="23" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -3429,8 +3467,8 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="28.9" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:6" ht="28.95" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="8">
@@ -3449,7 +3487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.9" customHeight="1">
+    <row r="25" spans="1:6" ht="40.950000000000003" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="26" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -3485,7 +3523,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="28.9" customHeight="1">
+    <row r="27" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -3503,7 +3541,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -3519,7 +3557,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="28.9" customHeight="1">
+    <row r="29" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -3537,7 +3575,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="30" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -3553,7 +3591,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="28.9" customHeight="1">
+    <row r="31" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -3569,7 +3607,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="28.9" customHeight="1">
+    <row r="32" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
@@ -3585,7 +3623,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="28.9" customHeight="1">
+    <row r="33" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -3603,7 +3641,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="28.9" customHeight="1">
+    <row r="34" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
@@ -3621,7 +3659,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="35" spans="1:6" ht="19.2" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -3639,7 +3677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.9" customHeight="1">
+    <row r="36" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
@@ -3655,7 +3693,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="28.9" customHeight="1">
+    <row r="37" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
@@ -3671,7 +3709,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="28.9" customHeight="1">
+    <row r="38" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -3689,7 +3727,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="28.9" customHeight="1">
+    <row r="39" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
@@ -3707,7 +3745,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="40" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
@@ -3725,7 +3763,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="41" spans="1:6" ht="19.2" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
@@ -3743,7 +3781,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="42" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3759,7 +3797,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="28.9" customHeight="1">
+    <row r="43" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -3777,7 +3815,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="44" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>113</v>
       </c>
@@ -3795,7 +3833,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="45" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>116</v>
       </c>
@@ -3811,7 +3849,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="46" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
@@ -3829,7 +3867,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="47" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>121</v>
       </c>
@@ -3845,7 +3883,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="48" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>123</v>
       </c>
@@ -3861,7 +3899,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="28.9" customHeight="1">
+    <row r="49" spans="1:6" ht="28.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>125</v>
       </c>
@@ -3879,7 +3917,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.9" customHeight="1">
+    <row r="50" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
@@ -3895,7 +3933,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="28.9" customHeight="1">
+    <row r="51" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>129</v>
       </c>
@@ -3911,7 +3949,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="52" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>131</v>
       </c>
@@ -3927,7 +3965,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="53" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
@@ -3943,7 +3981,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="28.9" customHeight="1">
+    <row r="54" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>135</v>
       </c>
@@ -3959,7 +3997,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="28.9" customHeight="1">
+    <row r="55" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>137</v>
       </c>
@@ -3975,7 +4013,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="56" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>139</v>
       </c>
@@ -3991,7 +4029,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="28.9" customHeight="1">
+    <row r="57" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
@@ -4007,7 +4045,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="58" spans="1:6" ht="19.2" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>143</v>
       </c>
@@ -4025,7 +4063,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.9" customHeight="1">
+    <row r="59" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -4041,7 +4079,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="60" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>147</v>
       </c>
@@ -4057,7 +4095,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="61" spans="1:6" ht="19.2" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>149</v>
       </c>
@@ -4075,7 +4113,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="62" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>151</v>
       </c>
@@ -4091,7 +4129,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="28.9" customHeight="1">
+    <row r="63" spans="1:6" ht="28.95" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>153</v>
       </c>
@@ -4109,7 +4147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="64" spans="1:6" ht="19.2" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>155</v>
       </c>
@@ -4127,7 +4165,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.9" customHeight="1">
+    <row r="65" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>157</v>
       </c>
@@ -4143,7 +4181,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="66" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>159</v>
       </c>
@@ -4159,7 +4197,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="28.9" customHeight="1">
+    <row r="67" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -4177,7 +4215,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="28.9" customHeight="1">
+    <row r="68" spans="1:6" ht="28.95" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>164</v>
       </c>
@@ -4195,7 +4233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="69" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>166</v>
       </c>
@@ -4211,7 +4249,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="28.9" customHeight="1">
+    <row r="70" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>168</v>
       </c>
@@ -4227,8 +4265,8 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="19.149999999999999" customHeight="1">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:6" ht="19.2" customHeight="1">
+      <c r="A71" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B71" s="6">
@@ -4247,7 +4285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.9" customHeight="1">
+    <row r="72" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>173</v>
       </c>
@@ -4263,7 +4301,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="28.9" customHeight="1">
+    <row r="73" spans="1:6" ht="28.95" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>175</v>
       </c>
@@ -4281,7 +4319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.9" customHeight="1">
+    <row r="74" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>177</v>
       </c>
@@ -4299,7 +4337,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="28.9" customHeight="1">
+    <row r="75" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>180</v>
       </c>
@@ -4315,7 +4353,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="76" spans="1:6" ht="19.2" hidden="1" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>182</v>
       </c>
@@ -4331,7 +4369,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="28.9" customHeight="1">
+    <row r="77" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>184</v>
       </c>
@@ -4349,7 +4387,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="28.9" customHeight="1">
+    <row r="78" spans="1:6" ht="28.95" hidden="1" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>187</v>
       </c>
@@ -4367,7 +4405,7 @@
       </c>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="28.9" customHeight="1">
+    <row r="79" spans="1:6" ht="28.95" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>189</v>
       </c>
@@ -4387,7 +4425,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.9" customHeight="1">
+    <row r="80" spans="1:6" ht="28.95" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>192</v>
       </c>
@@ -4407,7 +4445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="81" spans="1:256" ht="19.2" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>195</v>
       </c>
@@ -4425,7 +4463,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" ht="28.9" customHeight="1">
+    <row r="82" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>197</v>
       </c>
@@ -4441,7 +4479,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="83" spans="1:256" ht="19.2" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>199</v>
       </c>
@@ -4457,7 +4495,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="84" spans="1:256" ht="19.2" hidden="1" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>201</v>
       </c>
@@ -4473,7 +4511,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="28.9" customHeight="1">
+    <row r="85" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -4491,7 +4529,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" ht="28.9" customHeight="1">
+    <row r="86" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>206</v>
       </c>
@@ -4509,7 +4547,7 @@
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="28.9" customHeight="1">
+    <row r="87" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -4525,8 +4563,8 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="28.9" customHeight="1">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:256" ht="28.95" customHeight="1">
+      <c r="A88" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B88" s="8">
@@ -4545,8 +4583,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="28.9" customHeight="1">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:256" ht="28.95" customHeight="1">
+      <c r="A89" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B89" s="6">
@@ -4563,7 +4601,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.9" customHeight="1">
+    <row r="90" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>216</v>
       </c>
@@ -4579,7 +4617,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="91" spans="1:256" ht="19.2" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>218</v>
       </c>
@@ -4597,7 +4635,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="92" spans="1:256" ht="19.2" hidden="1" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>220</v>
       </c>
@@ -4613,7 +4651,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="93" spans="1:256" ht="19.2" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>222</v>
       </c>
@@ -4631,81 +4669,1081 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="19.149999999999999" customHeight="1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:256" s="17" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A94" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="14">
         <v>1</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5" t="s">
+      <c r="E94" s="15"/>
+      <c r="F94" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.9" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+      <c r="Z94" s="16"/>
+      <c r="AA94" s="16"/>
+      <c r="AB94" s="16"/>
+      <c r="AC94" s="16"/>
+      <c r="AD94" s="16"/>
+      <c r="AE94" s="16"/>
+      <c r="AF94" s="16"/>
+      <c r="AG94" s="16"/>
+      <c r="AH94" s="16"/>
+      <c r="AI94" s="16"/>
+      <c r="AJ94" s="16"/>
+      <c r="AK94" s="16"/>
+      <c r="AL94" s="16"/>
+      <c r="AM94" s="16"/>
+      <c r="AN94" s="16"/>
+      <c r="AO94" s="16"/>
+      <c r="AP94" s="16"/>
+      <c r="AQ94" s="16"/>
+      <c r="AR94" s="16"/>
+      <c r="AS94" s="16"/>
+      <c r="AT94" s="16"/>
+      <c r="AU94" s="16"/>
+      <c r="AV94" s="16"/>
+      <c r="AW94" s="16"/>
+      <c r="AX94" s="16"/>
+      <c r="AY94" s="16"/>
+      <c r="AZ94" s="16"/>
+      <c r="BA94" s="16"/>
+      <c r="BB94" s="16"/>
+      <c r="BC94" s="16"/>
+      <c r="BD94" s="16"/>
+      <c r="BE94" s="16"/>
+      <c r="BF94" s="16"/>
+      <c r="BG94" s="16"/>
+      <c r="BH94" s="16"/>
+      <c r="BI94" s="16"/>
+      <c r="BJ94" s="16"/>
+      <c r="BK94" s="16"/>
+      <c r="BL94" s="16"/>
+      <c r="BM94" s="16"/>
+      <c r="BN94" s="16"/>
+      <c r="BO94" s="16"/>
+      <c r="BP94" s="16"/>
+      <c r="BQ94" s="16"/>
+      <c r="BR94" s="16"/>
+      <c r="BS94" s="16"/>
+      <c r="BT94" s="16"/>
+      <c r="BU94" s="16"/>
+      <c r="BV94" s="16"/>
+      <c r="BW94" s="16"/>
+      <c r="BX94" s="16"/>
+      <c r="BY94" s="16"/>
+      <c r="BZ94" s="16"/>
+      <c r="CA94" s="16"/>
+      <c r="CB94" s="16"/>
+      <c r="CC94" s="16"/>
+      <c r="CD94" s="16"/>
+      <c r="CE94" s="16"/>
+      <c r="CF94" s="16"/>
+      <c r="CG94" s="16"/>
+      <c r="CH94" s="16"/>
+      <c r="CI94" s="16"/>
+      <c r="CJ94" s="16"/>
+      <c r="CK94" s="16"/>
+      <c r="CL94" s="16"/>
+      <c r="CM94" s="16"/>
+      <c r="CN94" s="16"/>
+      <c r="CO94" s="16"/>
+      <c r="CP94" s="16"/>
+      <c r="CQ94" s="16"/>
+      <c r="CR94" s="16"/>
+      <c r="CS94" s="16"/>
+      <c r="CT94" s="16"/>
+      <c r="CU94" s="16"/>
+      <c r="CV94" s="16"/>
+      <c r="CW94" s="16"/>
+      <c r="CX94" s="16"/>
+      <c r="CY94" s="16"/>
+      <c r="CZ94" s="16"/>
+      <c r="DA94" s="16"/>
+      <c r="DB94" s="16"/>
+      <c r="DC94" s="16"/>
+      <c r="DD94" s="16"/>
+      <c r="DE94" s="16"/>
+      <c r="DF94" s="16"/>
+      <c r="DG94" s="16"/>
+      <c r="DH94" s="16"/>
+      <c r="DI94" s="16"/>
+      <c r="DJ94" s="16"/>
+      <c r="DK94" s="16"/>
+      <c r="DL94" s="16"/>
+      <c r="DM94" s="16"/>
+      <c r="DN94" s="16"/>
+      <c r="DO94" s="16"/>
+      <c r="DP94" s="16"/>
+      <c r="DQ94" s="16"/>
+      <c r="DR94" s="16"/>
+      <c r="DS94" s="16"/>
+      <c r="DT94" s="16"/>
+      <c r="DU94" s="16"/>
+      <c r="DV94" s="16"/>
+      <c r="DW94" s="16"/>
+      <c r="DX94" s="16"/>
+      <c r="DY94" s="16"/>
+      <c r="DZ94" s="16"/>
+      <c r="EA94" s="16"/>
+      <c r="EB94" s="16"/>
+      <c r="EC94" s="16"/>
+      <c r="ED94" s="16"/>
+      <c r="EE94" s="16"/>
+      <c r="EF94" s="16"/>
+      <c r="EG94" s="16"/>
+      <c r="EH94" s="16"/>
+      <c r="EI94" s="16"/>
+      <c r="EJ94" s="16"/>
+      <c r="EK94" s="16"/>
+      <c r="EL94" s="16"/>
+      <c r="EM94" s="16"/>
+      <c r="EN94" s="16"/>
+      <c r="EO94" s="16"/>
+      <c r="EP94" s="16"/>
+      <c r="EQ94" s="16"/>
+      <c r="ER94" s="16"/>
+      <c r="ES94" s="16"/>
+      <c r="ET94" s="16"/>
+      <c r="EU94" s="16"/>
+      <c r="EV94" s="16"/>
+      <c r="EW94" s="16"/>
+      <c r="EX94" s="16"/>
+      <c r="EY94" s="16"/>
+      <c r="EZ94" s="16"/>
+      <c r="FA94" s="16"/>
+      <c r="FB94" s="16"/>
+      <c r="FC94" s="16"/>
+      <c r="FD94" s="16"/>
+      <c r="FE94" s="16"/>
+      <c r="FF94" s="16"/>
+      <c r="FG94" s="16"/>
+      <c r="FH94" s="16"/>
+      <c r="FI94" s="16"/>
+      <c r="FJ94" s="16"/>
+      <c r="FK94" s="16"/>
+      <c r="FL94" s="16"/>
+      <c r="FM94" s="16"/>
+      <c r="FN94" s="16"/>
+      <c r="FO94" s="16"/>
+      <c r="FP94" s="16"/>
+      <c r="FQ94" s="16"/>
+      <c r="FR94" s="16"/>
+      <c r="FS94" s="16"/>
+      <c r="FT94" s="16"/>
+      <c r="FU94" s="16"/>
+      <c r="FV94" s="16"/>
+      <c r="FW94" s="16"/>
+      <c r="FX94" s="16"/>
+      <c r="FY94" s="16"/>
+      <c r="FZ94" s="16"/>
+      <c r="GA94" s="16"/>
+      <c r="GB94" s="16"/>
+      <c r="GC94" s="16"/>
+      <c r="GD94" s="16"/>
+      <c r="GE94" s="16"/>
+      <c r="GF94" s="16"/>
+      <c r="GG94" s="16"/>
+      <c r="GH94" s="16"/>
+      <c r="GI94" s="16"/>
+      <c r="GJ94" s="16"/>
+      <c r="GK94" s="16"/>
+      <c r="GL94" s="16"/>
+      <c r="GM94" s="16"/>
+      <c r="GN94" s="16"/>
+      <c r="GO94" s="16"/>
+      <c r="GP94" s="16"/>
+      <c r="GQ94" s="16"/>
+      <c r="GR94" s="16"/>
+      <c r="GS94" s="16"/>
+      <c r="GT94" s="16"/>
+      <c r="GU94" s="16"/>
+      <c r="GV94" s="16"/>
+      <c r="GW94" s="16"/>
+      <c r="GX94" s="16"/>
+      <c r="GY94" s="16"/>
+      <c r="GZ94" s="16"/>
+      <c r="HA94" s="16"/>
+      <c r="HB94" s="16"/>
+      <c r="HC94" s="16"/>
+      <c r="HD94" s="16"/>
+      <c r="HE94" s="16"/>
+      <c r="HF94" s="16"/>
+      <c r="HG94" s="16"/>
+      <c r="HH94" s="16"/>
+      <c r="HI94" s="16"/>
+      <c r="HJ94" s="16"/>
+      <c r="HK94" s="16"/>
+      <c r="HL94" s="16"/>
+      <c r="HM94" s="16"/>
+      <c r="HN94" s="16"/>
+      <c r="HO94" s="16"/>
+      <c r="HP94" s="16"/>
+      <c r="HQ94" s="16"/>
+      <c r="HR94" s="16"/>
+      <c r="HS94" s="16"/>
+      <c r="HT94" s="16"/>
+      <c r="HU94" s="16"/>
+      <c r="HV94" s="16"/>
+      <c r="HW94" s="16"/>
+      <c r="HX94" s="16"/>
+      <c r="HY94" s="16"/>
+      <c r="HZ94" s="16"/>
+      <c r="IA94" s="16"/>
+      <c r="IB94" s="16"/>
+      <c r="IC94" s="16"/>
+      <c r="ID94" s="16"/>
+      <c r="IE94" s="16"/>
+      <c r="IF94" s="16"/>
+      <c r="IG94" s="16"/>
+      <c r="IH94" s="16"/>
+      <c r="II94" s="16"/>
+      <c r="IJ94" s="16"/>
+      <c r="IK94" s="16"/>
+      <c r="IL94" s="16"/>
+      <c r="IM94" s="16"/>
+      <c r="IN94" s="16"/>
+      <c r="IO94" s="16"/>
+      <c r="IP94" s="16"/>
+      <c r="IQ94" s="16"/>
+      <c r="IR94" s="16"/>
+      <c r="IS94" s="16"/>
+      <c r="IT94" s="16"/>
+      <c r="IU94" s="16"/>
+      <c r="IV94" s="16"/>
+    </row>
+    <row r="95" spans="1:256" s="17" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A95" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7" t="s">
+      <c r="E95" s="15"/>
+      <c r="F95" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="19.149999999999999" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+      <c r="Z95" s="16"/>
+      <c r="AA95" s="16"/>
+      <c r="AB95" s="16"/>
+      <c r="AC95" s="16"/>
+      <c r="AD95" s="16"/>
+      <c r="AE95" s="16"/>
+      <c r="AF95" s="16"/>
+      <c r="AG95" s="16"/>
+      <c r="AH95" s="16"/>
+      <c r="AI95" s="16"/>
+      <c r="AJ95" s="16"/>
+      <c r="AK95" s="16"/>
+      <c r="AL95" s="16"/>
+      <c r="AM95" s="16"/>
+      <c r="AN95" s="16"/>
+      <c r="AO95" s="16"/>
+      <c r="AP95" s="16"/>
+      <c r="AQ95" s="16"/>
+      <c r="AR95" s="16"/>
+      <c r="AS95" s="16"/>
+      <c r="AT95" s="16"/>
+      <c r="AU95" s="16"/>
+      <c r="AV95" s="16"/>
+      <c r="AW95" s="16"/>
+      <c r="AX95" s="16"/>
+      <c r="AY95" s="16"/>
+      <c r="AZ95" s="16"/>
+      <c r="BA95" s="16"/>
+      <c r="BB95" s="16"/>
+      <c r="BC95" s="16"/>
+      <c r="BD95" s="16"/>
+      <c r="BE95" s="16"/>
+      <c r="BF95" s="16"/>
+      <c r="BG95" s="16"/>
+      <c r="BH95" s="16"/>
+      <c r="BI95" s="16"/>
+      <c r="BJ95" s="16"/>
+      <c r="BK95" s="16"/>
+      <c r="BL95" s="16"/>
+      <c r="BM95" s="16"/>
+      <c r="BN95" s="16"/>
+      <c r="BO95" s="16"/>
+      <c r="BP95" s="16"/>
+      <c r="BQ95" s="16"/>
+      <c r="BR95" s="16"/>
+      <c r="BS95" s="16"/>
+      <c r="BT95" s="16"/>
+      <c r="BU95" s="16"/>
+      <c r="BV95" s="16"/>
+      <c r="BW95" s="16"/>
+      <c r="BX95" s="16"/>
+      <c r="BY95" s="16"/>
+      <c r="BZ95" s="16"/>
+      <c r="CA95" s="16"/>
+      <c r="CB95" s="16"/>
+      <c r="CC95" s="16"/>
+      <c r="CD95" s="16"/>
+      <c r="CE95" s="16"/>
+      <c r="CF95" s="16"/>
+      <c r="CG95" s="16"/>
+      <c r="CH95" s="16"/>
+      <c r="CI95" s="16"/>
+      <c r="CJ95" s="16"/>
+      <c r="CK95" s="16"/>
+      <c r="CL95" s="16"/>
+      <c r="CM95" s="16"/>
+      <c r="CN95" s="16"/>
+      <c r="CO95" s="16"/>
+      <c r="CP95" s="16"/>
+      <c r="CQ95" s="16"/>
+      <c r="CR95" s="16"/>
+      <c r="CS95" s="16"/>
+      <c r="CT95" s="16"/>
+      <c r="CU95" s="16"/>
+      <c r="CV95" s="16"/>
+      <c r="CW95" s="16"/>
+      <c r="CX95" s="16"/>
+      <c r="CY95" s="16"/>
+      <c r="CZ95" s="16"/>
+      <c r="DA95" s="16"/>
+      <c r="DB95" s="16"/>
+      <c r="DC95" s="16"/>
+      <c r="DD95" s="16"/>
+      <c r="DE95" s="16"/>
+      <c r="DF95" s="16"/>
+      <c r="DG95" s="16"/>
+      <c r="DH95" s="16"/>
+      <c r="DI95" s="16"/>
+      <c r="DJ95" s="16"/>
+      <c r="DK95" s="16"/>
+      <c r="DL95" s="16"/>
+      <c r="DM95" s="16"/>
+      <c r="DN95" s="16"/>
+      <c r="DO95" s="16"/>
+      <c r="DP95" s="16"/>
+      <c r="DQ95" s="16"/>
+      <c r="DR95" s="16"/>
+      <c r="DS95" s="16"/>
+      <c r="DT95" s="16"/>
+      <c r="DU95" s="16"/>
+      <c r="DV95" s="16"/>
+      <c r="DW95" s="16"/>
+      <c r="DX95" s="16"/>
+      <c r="DY95" s="16"/>
+      <c r="DZ95" s="16"/>
+      <c r="EA95" s="16"/>
+      <c r="EB95" s="16"/>
+      <c r="EC95" s="16"/>
+      <c r="ED95" s="16"/>
+      <c r="EE95" s="16"/>
+      <c r="EF95" s="16"/>
+      <c r="EG95" s="16"/>
+      <c r="EH95" s="16"/>
+      <c r="EI95" s="16"/>
+      <c r="EJ95" s="16"/>
+      <c r="EK95" s="16"/>
+      <c r="EL95" s="16"/>
+      <c r="EM95" s="16"/>
+      <c r="EN95" s="16"/>
+      <c r="EO95" s="16"/>
+      <c r="EP95" s="16"/>
+      <c r="EQ95" s="16"/>
+      <c r="ER95" s="16"/>
+      <c r="ES95" s="16"/>
+      <c r="ET95" s="16"/>
+      <c r="EU95" s="16"/>
+      <c r="EV95" s="16"/>
+      <c r="EW95" s="16"/>
+      <c r="EX95" s="16"/>
+      <c r="EY95" s="16"/>
+      <c r="EZ95" s="16"/>
+      <c r="FA95" s="16"/>
+      <c r="FB95" s="16"/>
+      <c r="FC95" s="16"/>
+      <c r="FD95" s="16"/>
+      <c r="FE95" s="16"/>
+      <c r="FF95" s="16"/>
+      <c r="FG95" s="16"/>
+      <c r="FH95" s="16"/>
+      <c r="FI95" s="16"/>
+      <c r="FJ95" s="16"/>
+      <c r="FK95" s="16"/>
+      <c r="FL95" s="16"/>
+      <c r="FM95" s="16"/>
+      <c r="FN95" s="16"/>
+      <c r="FO95" s="16"/>
+      <c r="FP95" s="16"/>
+      <c r="FQ95" s="16"/>
+      <c r="FR95" s="16"/>
+      <c r="FS95" s="16"/>
+      <c r="FT95" s="16"/>
+      <c r="FU95" s="16"/>
+      <c r="FV95" s="16"/>
+      <c r="FW95" s="16"/>
+      <c r="FX95" s="16"/>
+      <c r="FY95" s="16"/>
+      <c r="FZ95" s="16"/>
+      <c r="GA95" s="16"/>
+      <c r="GB95" s="16"/>
+      <c r="GC95" s="16"/>
+      <c r="GD95" s="16"/>
+      <c r="GE95" s="16"/>
+      <c r="GF95" s="16"/>
+      <c r="GG95" s="16"/>
+      <c r="GH95" s="16"/>
+      <c r="GI95" s="16"/>
+      <c r="GJ95" s="16"/>
+      <c r="GK95" s="16"/>
+      <c r="GL95" s="16"/>
+      <c r="GM95" s="16"/>
+      <c r="GN95" s="16"/>
+      <c r="GO95" s="16"/>
+      <c r="GP95" s="16"/>
+      <c r="GQ95" s="16"/>
+      <c r="GR95" s="16"/>
+      <c r="GS95" s="16"/>
+      <c r="GT95" s="16"/>
+      <c r="GU95" s="16"/>
+      <c r="GV95" s="16"/>
+      <c r="GW95" s="16"/>
+      <c r="GX95" s="16"/>
+      <c r="GY95" s="16"/>
+      <c r="GZ95" s="16"/>
+      <c r="HA95" s="16"/>
+      <c r="HB95" s="16"/>
+      <c r="HC95" s="16"/>
+      <c r="HD95" s="16"/>
+      <c r="HE95" s="16"/>
+      <c r="HF95" s="16"/>
+      <c r="HG95" s="16"/>
+      <c r="HH95" s="16"/>
+      <c r="HI95" s="16"/>
+      <c r="HJ95" s="16"/>
+      <c r="HK95" s="16"/>
+      <c r="HL95" s="16"/>
+      <c r="HM95" s="16"/>
+      <c r="HN95" s="16"/>
+      <c r="HO95" s="16"/>
+      <c r="HP95" s="16"/>
+      <c r="HQ95" s="16"/>
+      <c r="HR95" s="16"/>
+      <c r="HS95" s="16"/>
+      <c r="HT95" s="16"/>
+      <c r="HU95" s="16"/>
+      <c r="HV95" s="16"/>
+      <c r="HW95" s="16"/>
+      <c r="HX95" s="16"/>
+      <c r="HY95" s="16"/>
+      <c r="HZ95" s="16"/>
+      <c r="IA95" s="16"/>
+      <c r="IB95" s="16"/>
+      <c r="IC95" s="16"/>
+      <c r="ID95" s="16"/>
+      <c r="IE95" s="16"/>
+      <c r="IF95" s="16"/>
+      <c r="IG95" s="16"/>
+      <c r="IH95" s="16"/>
+      <c r="II95" s="16"/>
+      <c r="IJ95" s="16"/>
+      <c r="IK95" s="16"/>
+      <c r="IL95" s="16"/>
+      <c r="IM95" s="16"/>
+      <c r="IN95" s="16"/>
+      <c r="IO95" s="16"/>
+      <c r="IP95" s="16"/>
+      <c r="IQ95" s="16"/>
+      <c r="IR95" s="16"/>
+      <c r="IS95" s="16"/>
+      <c r="IT95" s="16"/>
+      <c r="IU95" s="16"/>
+      <c r="IV95" s="16"/>
+    </row>
+    <row r="96" spans="1:256" s="17" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A96" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="14">
         <v>1</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5" t="s">
+      <c r="E96" s="15"/>
+      <c r="F96" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="28.9" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="16"/>
+      <c r="AC96" s="16"/>
+      <c r="AD96" s="16"/>
+      <c r="AE96" s="16"/>
+      <c r="AF96" s="16"/>
+      <c r="AG96" s="16"/>
+      <c r="AH96" s="16"/>
+      <c r="AI96" s="16"/>
+      <c r="AJ96" s="16"/>
+      <c r="AK96" s="16"/>
+      <c r="AL96" s="16"/>
+      <c r="AM96" s="16"/>
+      <c r="AN96" s="16"/>
+      <c r="AO96" s="16"/>
+      <c r="AP96" s="16"/>
+      <c r="AQ96" s="16"/>
+      <c r="AR96" s="16"/>
+      <c r="AS96" s="16"/>
+      <c r="AT96" s="16"/>
+      <c r="AU96" s="16"/>
+      <c r="AV96" s="16"/>
+      <c r="AW96" s="16"/>
+      <c r="AX96" s="16"/>
+      <c r="AY96" s="16"/>
+      <c r="AZ96" s="16"/>
+      <c r="BA96" s="16"/>
+      <c r="BB96" s="16"/>
+      <c r="BC96" s="16"/>
+      <c r="BD96" s="16"/>
+      <c r="BE96" s="16"/>
+      <c r="BF96" s="16"/>
+      <c r="BG96" s="16"/>
+      <c r="BH96" s="16"/>
+      <c r="BI96" s="16"/>
+      <c r="BJ96" s="16"/>
+      <c r="BK96" s="16"/>
+      <c r="BL96" s="16"/>
+      <c r="BM96" s="16"/>
+      <c r="BN96" s="16"/>
+      <c r="BO96" s="16"/>
+      <c r="BP96" s="16"/>
+      <c r="BQ96" s="16"/>
+      <c r="BR96" s="16"/>
+      <c r="BS96" s="16"/>
+      <c r="BT96" s="16"/>
+      <c r="BU96" s="16"/>
+      <c r="BV96" s="16"/>
+      <c r="BW96" s="16"/>
+      <c r="BX96" s="16"/>
+      <c r="BY96" s="16"/>
+      <c r="BZ96" s="16"/>
+      <c r="CA96" s="16"/>
+      <c r="CB96" s="16"/>
+      <c r="CC96" s="16"/>
+      <c r="CD96" s="16"/>
+      <c r="CE96" s="16"/>
+      <c r="CF96" s="16"/>
+      <c r="CG96" s="16"/>
+      <c r="CH96" s="16"/>
+      <c r="CI96" s="16"/>
+      <c r="CJ96" s="16"/>
+      <c r="CK96" s="16"/>
+      <c r="CL96" s="16"/>
+      <c r="CM96" s="16"/>
+      <c r="CN96" s="16"/>
+      <c r="CO96" s="16"/>
+      <c r="CP96" s="16"/>
+      <c r="CQ96" s="16"/>
+      <c r="CR96" s="16"/>
+      <c r="CS96" s="16"/>
+      <c r="CT96" s="16"/>
+      <c r="CU96" s="16"/>
+      <c r="CV96" s="16"/>
+      <c r="CW96" s="16"/>
+      <c r="CX96" s="16"/>
+      <c r="CY96" s="16"/>
+      <c r="CZ96" s="16"/>
+      <c r="DA96" s="16"/>
+      <c r="DB96" s="16"/>
+      <c r="DC96" s="16"/>
+      <c r="DD96" s="16"/>
+      <c r="DE96" s="16"/>
+      <c r="DF96" s="16"/>
+      <c r="DG96" s="16"/>
+      <c r="DH96" s="16"/>
+      <c r="DI96" s="16"/>
+      <c r="DJ96" s="16"/>
+      <c r="DK96" s="16"/>
+      <c r="DL96" s="16"/>
+      <c r="DM96" s="16"/>
+      <c r="DN96" s="16"/>
+      <c r="DO96" s="16"/>
+      <c r="DP96" s="16"/>
+      <c r="DQ96" s="16"/>
+      <c r="DR96" s="16"/>
+      <c r="DS96" s="16"/>
+      <c r="DT96" s="16"/>
+      <c r="DU96" s="16"/>
+      <c r="DV96" s="16"/>
+      <c r="DW96" s="16"/>
+      <c r="DX96" s="16"/>
+      <c r="DY96" s="16"/>
+      <c r="DZ96" s="16"/>
+      <c r="EA96" s="16"/>
+      <c r="EB96" s="16"/>
+      <c r="EC96" s="16"/>
+      <c r="ED96" s="16"/>
+      <c r="EE96" s="16"/>
+      <c r="EF96" s="16"/>
+      <c r="EG96" s="16"/>
+      <c r="EH96" s="16"/>
+      <c r="EI96" s="16"/>
+      <c r="EJ96" s="16"/>
+      <c r="EK96" s="16"/>
+      <c r="EL96" s="16"/>
+      <c r="EM96" s="16"/>
+      <c r="EN96" s="16"/>
+      <c r="EO96" s="16"/>
+      <c r="EP96" s="16"/>
+      <c r="EQ96" s="16"/>
+      <c r="ER96" s="16"/>
+      <c r="ES96" s="16"/>
+      <c r="ET96" s="16"/>
+      <c r="EU96" s="16"/>
+      <c r="EV96" s="16"/>
+      <c r="EW96" s="16"/>
+      <c r="EX96" s="16"/>
+      <c r="EY96" s="16"/>
+      <c r="EZ96" s="16"/>
+      <c r="FA96" s="16"/>
+      <c r="FB96" s="16"/>
+      <c r="FC96" s="16"/>
+      <c r="FD96" s="16"/>
+      <c r="FE96" s="16"/>
+      <c r="FF96" s="16"/>
+      <c r="FG96" s="16"/>
+      <c r="FH96" s="16"/>
+      <c r="FI96" s="16"/>
+      <c r="FJ96" s="16"/>
+      <c r="FK96" s="16"/>
+      <c r="FL96" s="16"/>
+      <c r="FM96" s="16"/>
+      <c r="FN96" s="16"/>
+      <c r="FO96" s="16"/>
+      <c r="FP96" s="16"/>
+      <c r="FQ96" s="16"/>
+      <c r="FR96" s="16"/>
+      <c r="FS96" s="16"/>
+      <c r="FT96" s="16"/>
+      <c r="FU96" s="16"/>
+      <c r="FV96" s="16"/>
+      <c r="FW96" s="16"/>
+      <c r="FX96" s="16"/>
+      <c r="FY96" s="16"/>
+      <c r="FZ96" s="16"/>
+      <c r="GA96" s="16"/>
+      <c r="GB96" s="16"/>
+      <c r="GC96" s="16"/>
+      <c r="GD96" s="16"/>
+      <c r="GE96" s="16"/>
+      <c r="GF96" s="16"/>
+      <c r="GG96" s="16"/>
+      <c r="GH96" s="16"/>
+      <c r="GI96" s="16"/>
+      <c r="GJ96" s="16"/>
+      <c r="GK96" s="16"/>
+      <c r="GL96" s="16"/>
+      <c r="GM96" s="16"/>
+      <c r="GN96" s="16"/>
+      <c r="GO96" s="16"/>
+      <c r="GP96" s="16"/>
+      <c r="GQ96" s="16"/>
+      <c r="GR96" s="16"/>
+      <c r="GS96" s="16"/>
+      <c r="GT96" s="16"/>
+      <c r="GU96" s="16"/>
+      <c r="GV96" s="16"/>
+      <c r="GW96" s="16"/>
+      <c r="GX96" s="16"/>
+      <c r="GY96" s="16"/>
+      <c r="GZ96" s="16"/>
+      <c r="HA96" s="16"/>
+      <c r="HB96" s="16"/>
+      <c r="HC96" s="16"/>
+      <c r="HD96" s="16"/>
+      <c r="HE96" s="16"/>
+      <c r="HF96" s="16"/>
+      <c r="HG96" s="16"/>
+      <c r="HH96" s="16"/>
+      <c r="HI96" s="16"/>
+      <c r="HJ96" s="16"/>
+      <c r="HK96" s="16"/>
+      <c r="HL96" s="16"/>
+      <c r="HM96" s="16"/>
+      <c r="HN96" s="16"/>
+      <c r="HO96" s="16"/>
+      <c r="HP96" s="16"/>
+      <c r="HQ96" s="16"/>
+      <c r="HR96" s="16"/>
+      <c r="HS96" s="16"/>
+      <c r="HT96" s="16"/>
+      <c r="HU96" s="16"/>
+      <c r="HV96" s="16"/>
+      <c r="HW96" s="16"/>
+      <c r="HX96" s="16"/>
+      <c r="HY96" s="16"/>
+      <c r="HZ96" s="16"/>
+      <c r="IA96" s="16"/>
+      <c r="IB96" s="16"/>
+      <c r="IC96" s="16"/>
+      <c r="ID96" s="16"/>
+      <c r="IE96" s="16"/>
+      <c r="IF96" s="16"/>
+      <c r="IG96" s="16"/>
+      <c r="IH96" s="16"/>
+      <c r="II96" s="16"/>
+      <c r="IJ96" s="16"/>
+      <c r="IK96" s="16"/>
+      <c r="IL96" s="16"/>
+      <c r="IM96" s="16"/>
+      <c r="IN96" s="16"/>
+      <c r="IO96" s="16"/>
+      <c r="IP96" s="16"/>
+      <c r="IQ96" s="16"/>
+      <c r="IR96" s="16"/>
+      <c r="IS96" s="16"/>
+      <c r="IT96" s="16"/>
+      <c r="IU96" s="16"/>
+      <c r="IV96" s="16"/>
+    </row>
+    <row r="97" spans="1:256" s="17" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A97" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="14">
         <v>2</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="28.9" customHeight="1">
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="16"/>
+      <c r="Z97" s="16"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="16"/>
+      <c r="AC97" s="16"/>
+      <c r="AD97" s="16"/>
+      <c r="AE97" s="16"/>
+      <c r="AF97" s="16"/>
+      <c r="AG97" s="16"/>
+      <c r="AH97" s="16"/>
+      <c r="AI97" s="16"/>
+      <c r="AJ97" s="16"/>
+      <c r="AK97" s="16"/>
+      <c r="AL97" s="16"/>
+      <c r="AM97" s="16"/>
+      <c r="AN97" s="16"/>
+      <c r="AO97" s="16"/>
+      <c r="AP97" s="16"/>
+      <c r="AQ97" s="16"/>
+      <c r="AR97" s="16"/>
+      <c r="AS97" s="16"/>
+      <c r="AT97" s="16"/>
+      <c r="AU97" s="16"/>
+      <c r="AV97" s="16"/>
+      <c r="AW97" s="16"/>
+      <c r="AX97" s="16"/>
+      <c r="AY97" s="16"/>
+      <c r="AZ97" s="16"/>
+      <c r="BA97" s="16"/>
+      <c r="BB97" s="16"/>
+      <c r="BC97" s="16"/>
+      <c r="BD97" s="16"/>
+      <c r="BE97" s="16"/>
+      <c r="BF97" s="16"/>
+      <c r="BG97" s="16"/>
+      <c r="BH97" s="16"/>
+      <c r="BI97" s="16"/>
+      <c r="BJ97" s="16"/>
+      <c r="BK97" s="16"/>
+      <c r="BL97" s="16"/>
+      <c r="BM97" s="16"/>
+      <c r="BN97" s="16"/>
+      <c r="BO97" s="16"/>
+      <c r="BP97" s="16"/>
+      <c r="BQ97" s="16"/>
+      <c r="BR97" s="16"/>
+      <c r="BS97" s="16"/>
+      <c r="BT97" s="16"/>
+      <c r="BU97" s="16"/>
+      <c r="BV97" s="16"/>
+      <c r="BW97" s="16"/>
+      <c r="BX97" s="16"/>
+      <c r="BY97" s="16"/>
+      <c r="BZ97" s="16"/>
+      <c r="CA97" s="16"/>
+      <c r="CB97" s="16"/>
+      <c r="CC97" s="16"/>
+      <c r="CD97" s="16"/>
+      <c r="CE97" s="16"/>
+      <c r="CF97" s="16"/>
+      <c r="CG97" s="16"/>
+      <c r="CH97" s="16"/>
+      <c r="CI97" s="16"/>
+      <c r="CJ97" s="16"/>
+      <c r="CK97" s="16"/>
+      <c r="CL97" s="16"/>
+      <c r="CM97" s="16"/>
+      <c r="CN97" s="16"/>
+      <c r="CO97" s="16"/>
+      <c r="CP97" s="16"/>
+      <c r="CQ97" s="16"/>
+      <c r="CR97" s="16"/>
+      <c r="CS97" s="16"/>
+      <c r="CT97" s="16"/>
+      <c r="CU97" s="16"/>
+      <c r="CV97" s="16"/>
+      <c r="CW97" s="16"/>
+      <c r="CX97" s="16"/>
+      <c r="CY97" s="16"/>
+      <c r="CZ97" s="16"/>
+      <c r="DA97" s="16"/>
+      <c r="DB97" s="16"/>
+      <c r="DC97" s="16"/>
+      <c r="DD97" s="16"/>
+      <c r="DE97" s="16"/>
+      <c r="DF97" s="16"/>
+      <c r="DG97" s="16"/>
+      <c r="DH97" s="16"/>
+      <c r="DI97" s="16"/>
+      <c r="DJ97" s="16"/>
+      <c r="DK97" s="16"/>
+      <c r="DL97" s="16"/>
+      <c r="DM97" s="16"/>
+      <c r="DN97" s="16"/>
+      <c r="DO97" s="16"/>
+      <c r="DP97" s="16"/>
+      <c r="DQ97" s="16"/>
+      <c r="DR97" s="16"/>
+      <c r="DS97" s="16"/>
+      <c r="DT97" s="16"/>
+      <c r="DU97" s="16"/>
+      <c r="DV97" s="16"/>
+      <c r="DW97" s="16"/>
+      <c r="DX97" s="16"/>
+      <c r="DY97" s="16"/>
+      <c r="DZ97" s="16"/>
+      <c r="EA97" s="16"/>
+      <c r="EB97" s="16"/>
+      <c r="EC97" s="16"/>
+      <c r="ED97" s="16"/>
+      <c r="EE97" s="16"/>
+      <c r="EF97" s="16"/>
+      <c r="EG97" s="16"/>
+      <c r="EH97" s="16"/>
+      <c r="EI97" s="16"/>
+      <c r="EJ97" s="16"/>
+      <c r="EK97" s="16"/>
+      <c r="EL97" s="16"/>
+      <c r="EM97" s="16"/>
+      <c r="EN97" s="16"/>
+      <c r="EO97" s="16"/>
+      <c r="EP97" s="16"/>
+      <c r="EQ97" s="16"/>
+      <c r="ER97" s="16"/>
+      <c r="ES97" s="16"/>
+      <c r="ET97" s="16"/>
+      <c r="EU97" s="16"/>
+      <c r="EV97" s="16"/>
+      <c r="EW97" s="16"/>
+      <c r="EX97" s="16"/>
+      <c r="EY97" s="16"/>
+      <c r="EZ97" s="16"/>
+      <c r="FA97" s="16"/>
+      <c r="FB97" s="16"/>
+      <c r="FC97" s="16"/>
+      <c r="FD97" s="16"/>
+      <c r="FE97" s="16"/>
+      <c r="FF97" s="16"/>
+      <c r="FG97" s="16"/>
+      <c r="FH97" s="16"/>
+      <c r="FI97" s="16"/>
+      <c r="FJ97" s="16"/>
+      <c r="FK97" s="16"/>
+      <c r="FL97" s="16"/>
+      <c r="FM97" s="16"/>
+      <c r="FN97" s="16"/>
+      <c r="FO97" s="16"/>
+      <c r="FP97" s="16"/>
+      <c r="FQ97" s="16"/>
+      <c r="FR97" s="16"/>
+      <c r="FS97" s="16"/>
+      <c r="FT97" s="16"/>
+      <c r="FU97" s="16"/>
+      <c r="FV97" s="16"/>
+      <c r="FW97" s="16"/>
+      <c r="FX97" s="16"/>
+      <c r="FY97" s="16"/>
+      <c r="FZ97" s="16"/>
+      <c r="GA97" s="16"/>
+      <c r="GB97" s="16"/>
+      <c r="GC97" s="16"/>
+      <c r="GD97" s="16"/>
+      <c r="GE97" s="16"/>
+      <c r="GF97" s="16"/>
+      <c r="GG97" s="16"/>
+      <c r="GH97" s="16"/>
+      <c r="GI97" s="16"/>
+      <c r="GJ97" s="16"/>
+      <c r="GK97" s="16"/>
+      <c r="GL97" s="16"/>
+      <c r="GM97" s="16"/>
+      <c r="GN97" s="16"/>
+      <c r="GO97" s="16"/>
+      <c r="GP97" s="16"/>
+      <c r="GQ97" s="16"/>
+      <c r="GR97" s="16"/>
+      <c r="GS97" s="16"/>
+      <c r="GT97" s="16"/>
+      <c r="GU97" s="16"/>
+      <c r="GV97" s="16"/>
+      <c r="GW97" s="16"/>
+      <c r="GX97" s="16"/>
+      <c r="GY97" s="16"/>
+      <c r="GZ97" s="16"/>
+      <c r="HA97" s="16"/>
+      <c r="HB97" s="16"/>
+      <c r="HC97" s="16"/>
+      <c r="HD97" s="16"/>
+      <c r="HE97" s="16"/>
+      <c r="HF97" s="16"/>
+      <c r="HG97" s="16"/>
+      <c r="HH97" s="16"/>
+      <c r="HI97" s="16"/>
+      <c r="HJ97" s="16"/>
+      <c r="HK97" s="16"/>
+      <c r="HL97" s="16"/>
+      <c r="HM97" s="16"/>
+      <c r="HN97" s="16"/>
+      <c r="HO97" s="16"/>
+      <c r="HP97" s="16"/>
+      <c r="HQ97" s="16"/>
+      <c r="HR97" s="16"/>
+      <c r="HS97" s="16"/>
+      <c r="HT97" s="16"/>
+      <c r="HU97" s="16"/>
+      <c r="HV97" s="16"/>
+      <c r="HW97" s="16"/>
+      <c r="HX97" s="16"/>
+      <c r="HY97" s="16"/>
+      <c r="HZ97" s="16"/>
+      <c r="IA97" s="16"/>
+      <c r="IB97" s="16"/>
+      <c r="IC97" s="16"/>
+      <c r="ID97" s="16"/>
+      <c r="IE97" s="16"/>
+      <c r="IF97" s="16"/>
+      <c r="IG97" s="16"/>
+      <c r="IH97" s="16"/>
+      <c r="II97" s="16"/>
+      <c r="IJ97" s="16"/>
+      <c r="IK97" s="16"/>
+      <c r="IL97" s="16"/>
+      <c r="IM97" s="16"/>
+      <c r="IN97" s="16"/>
+      <c r="IO97" s="16"/>
+      <c r="IP97" s="16"/>
+      <c r="IQ97" s="16"/>
+      <c r="IR97" s="16"/>
+      <c r="IS97" s="16"/>
+      <c r="IT97" s="16"/>
+      <c r="IU97" s="16"/>
+      <c r="IV97" s="16"/>
+    </row>
+    <row r="98" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>233</v>
       </c>
@@ -4723,7 +5761,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="19.149999999999999" customHeight="1">
+    <row r="99" spans="1:256" ht="19.2" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>236</v>
       </c>
@@ -4739,7 +5777,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" ht="28.9" customHeight="1">
+    <row r="100" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>238</v>
       </c>
@@ -4755,7 +5793,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="28.9" customHeight="1">
+    <row r="101" spans="1:256" ht="28.95" hidden="1" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>240</v>
       </c>
@@ -4772,6 +5810,15 @@
       <c r="F101" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:IV101">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
